--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1839.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1839.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.202301622933737</v>
+        <v>0.9791771173477173</v>
       </c>
       <c r="B1">
-        <v>1.319846245608039</v>
+        <v>3.406835079193115</v>
       </c>
       <c r="C1">
-        <v>1.331691015762153</v>
+        <v>4.397721767425537</v>
       </c>
       <c r="D1">
-        <v>1.704465583190921</v>
+        <v>1.920611977577209</v>
       </c>
       <c r="E1">
-        <v>2.684335793643103</v>
+        <v>0.7703719139099121</v>
       </c>
     </row>
   </sheetData>
